--- a/test2/file_excel/Type_C.xlsx
+++ b/test2/file_excel/Type_C.xlsx
@@ -47,7 +47,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -73,13 +73,6 @@
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -126,16 +119,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -145,12 +134,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -163,7 +152,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -191,7 +180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -207,54 +196,54 @@
       <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>1</v>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="n">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>0</v>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>1</v>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
